--- a/data/pca/factorExposure/factorExposure_2014-07-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-07-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +732,60 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.005155196721635559</v>
+        <v>0.02057968458035745</v>
       </c>
       <c r="C2">
-        <v>0.1490887045249164</v>
+        <v>-0.07145061852390588</v>
       </c>
       <c r="D2">
-        <v>-0.03658379196330832</v>
+        <v>-0.03309874317925529</v>
       </c>
       <c r="E2">
-        <v>0.2338479369258277</v>
+        <v>-0.01300256025498717</v>
       </c>
       <c r="F2">
-        <v>0.07237584849829755</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.01494691318615562</v>
+      </c>
+      <c r="G2">
+        <v>0.1551857714281736</v>
+      </c>
+      <c r="H2">
+        <v>-0.005097901221822812</v>
+      </c>
+      <c r="I2">
+        <v>0.04573601628813466</v>
+      </c>
+      <c r="J2">
+        <v>0.1241438056657685</v>
+      </c>
+      <c r="K2">
+        <v>0.08203663532923638</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +802,60 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.01451161476046443</v>
+        <v>0.02206626573363142</v>
       </c>
       <c r="C4">
-        <v>0.173270214501059</v>
+        <v>-0.1405738158043756</v>
       </c>
       <c r="D4">
-        <v>-0.0502473500543516</v>
+        <v>-0.06414598723080527</v>
       </c>
       <c r="E4">
-        <v>0.03222117950915971</v>
+        <v>-0.01043689304422682</v>
       </c>
       <c r="F4">
-        <v>-0.07624886068929818</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.05709233224400845</v>
+      </c>
+      <c r="G4">
+        <v>0.03068865467417586</v>
+      </c>
+      <c r="H4">
+        <v>0.01808350869478</v>
+      </c>
+      <c r="I4">
+        <v>-0.03044555010827968</v>
+      </c>
+      <c r="J4">
+        <v>0.1010877785351354</v>
+      </c>
+      <c r="K4">
+        <v>0.01736791777989471</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +872,410 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.03836921680076408</v>
+        <v>0.04254025887735145</v>
       </c>
       <c r="C6">
-        <v>0.07157003216105487</v>
+        <v>-0.08482803735482794</v>
       </c>
       <c r="D6">
-        <v>-0.0750623207038264</v>
+        <v>-0.02765401524142728</v>
       </c>
       <c r="E6">
-        <v>0.02861045084758738</v>
+        <v>0.01976027150012725</v>
       </c>
       <c r="F6">
-        <v>0.01048212701435031</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.01956866484146575</v>
+      </c>
+      <c r="G6">
+        <v>0.04421083751989081</v>
+      </c>
+      <c r="H6">
+        <v>0.02028053897333035</v>
+      </c>
+      <c r="I6">
+        <v>-0.08009234358088885</v>
+      </c>
+      <c r="J6">
+        <v>0.002760941820097082</v>
+      </c>
+      <c r="K6">
+        <v>0.06812260052135927</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.0202748249749293</v>
+        <v>0.02127963695681815</v>
       </c>
       <c r="C7">
-        <v>0.08018135579084294</v>
+        <v>-0.07333656816736339</v>
       </c>
       <c r="D7">
-        <v>-0.04658939427773377</v>
+        <v>-0.03225899975248497</v>
       </c>
       <c r="E7">
-        <v>-0.004262237013981381</v>
+        <v>0.01743985384646254</v>
       </c>
       <c r="F7">
-        <v>0.0167208485970148</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.004460913089674667</v>
+      </c>
+      <c r="G7">
+        <v>-0.01784647605454076</v>
+      </c>
+      <c r="H7">
+        <v>0.01848723073404327</v>
+      </c>
+      <c r="I7">
+        <v>-0.01524113349268991</v>
+      </c>
+      <c r="J7">
+        <v>0.1064515393610083</v>
+      </c>
+      <c r="K7">
+        <v>0.0201972105207435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.0128469198022139</v>
+        <v>0.002408859381239588</v>
       </c>
       <c r="C8">
-        <v>0.0715607719592196</v>
+        <v>-0.06065758123755303</v>
       </c>
       <c r="D8">
-        <v>-0.02180913170964449</v>
+        <v>-0.04388065687083466</v>
       </c>
       <c r="E8">
-        <v>0.08070592300698357</v>
+        <v>0.02968929074651741</v>
       </c>
       <c r="F8">
-        <v>-0.0122073135622026</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02724677497622856</v>
+      </c>
+      <c r="G8">
+        <v>0.06135639191834519</v>
+      </c>
+      <c r="H8">
+        <v>0.05004132462098183</v>
+      </c>
+      <c r="I8">
+        <v>-0.02690513094476962</v>
+      </c>
+      <c r="J8">
+        <v>0.02543020629958503</v>
+      </c>
+      <c r="K8">
+        <v>-0.01342857322615739</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.0088979287696653</v>
+        <v>0.0142676760890488</v>
       </c>
       <c r="C9">
-        <v>0.1201205571888275</v>
+        <v>-0.09854784308643885</v>
       </c>
       <c r="D9">
-        <v>-0.05787641340423286</v>
+        <v>-0.04063272489304975</v>
       </c>
       <c r="E9">
-        <v>-0.005185133796630384</v>
+        <v>-0.02645802505775625</v>
       </c>
       <c r="F9">
-        <v>-0.01191686654251883</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.02384785252406179</v>
+      </c>
+      <c r="G9">
+        <v>0.01952313762240283</v>
+      </c>
+      <c r="H9">
+        <v>0.03564031764369082</v>
+      </c>
+      <c r="I9">
+        <v>-0.01338586475848789</v>
+      </c>
+      <c r="J9">
+        <v>0.1057706661162321</v>
+      </c>
+      <c r="K9">
+        <v>0.02356273957182479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2542607165104205</v>
+        <v>0.242183728357047</v>
       </c>
       <c r="C10">
-        <v>-0.07882679613777865</v>
+        <v>0.1033109364997441</v>
       </c>
       <c r="D10">
-        <v>0.03287613990321996</v>
+        <v>0.007924309337744982</v>
       </c>
       <c r="E10">
-        <v>-0.02199415595934638</v>
+        <v>0.05239764380655094</v>
       </c>
       <c r="F10">
-        <v>-0.04025875865774881</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.0007813069816812519</v>
+      </c>
+      <c r="G10">
+        <v>0.01994284217797587</v>
+      </c>
+      <c r="H10">
+        <v>0.02010942828195795</v>
+      </c>
+      <c r="I10">
+        <v>-0.05350859357128605</v>
+      </c>
+      <c r="J10">
+        <v>0.01676964705681151</v>
+      </c>
+      <c r="K10">
+        <v>-0.1493532346817951</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.0071389305185292</v>
+        <v>0.01897021419615102</v>
       </c>
       <c r="C11">
-        <v>0.06748395268303341</v>
+        <v>-0.0789663346398701</v>
       </c>
       <c r="D11">
-        <v>-0.0371980221444192</v>
+        <v>-0.042004181488781</v>
       </c>
       <c r="E11">
-        <v>-0.03545302118540301</v>
+        <v>-0.01387519320510526</v>
       </c>
       <c r="F11">
-        <v>-0.003505337860619053</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.001112789039149066</v>
+      </c>
+      <c r="G11">
+        <v>-0.01114450095730583</v>
+      </c>
+      <c r="H11">
+        <v>0.01778747765256932</v>
+      </c>
+      <c r="I11">
+        <v>-0.002204299602308561</v>
+      </c>
+      <c r="J11">
+        <v>0.02741872822942671</v>
+      </c>
+      <c r="K11">
+        <v>0.02462584850582263</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.007510916836319925</v>
+        <v>0.01793854614820526</v>
       </c>
       <c r="C12">
-        <v>0.04572931138675012</v>
+        <v>-0.05206763015030369</v>
       </c>
       <c r="D12">
-        <v>-0.03807492732277803</v>
+        <v>-0.02596541880536355</v>
       </c>
       <c r="E12">
-        <v>-0.02992870124157674</v>
+        <v>-0.007937274443015344</v>
       </c>
       <c r="F12">
-        <v>0.01775782222250599</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01838062156749947</v>
+      </c>
+      <c r="G12">
+        <v>0.0008353261449300162</v>
+      </c>
+      <c r="H12">
+        <v>0.01241734637951649</v>
+      </c>
+      <c r="I12">
+        <v>-0.0239718573124654</v>
+      </c>
+      <c r="J12">
+        <v>0.02527063397226132</v>
+      </c>
+      <c r="K12">
+        <v>0.01093705054464267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.007344195148647707</v>
+        <v>0.008283573666548477</v>
       </c>
       <c r="C13">
-        <v>0.1137848801843891</v>
+        <v>-0.109140323150493</v>
       </c>
       <c r="D13">
-        <v>-0.05746688026820883</v>
+        <v>-0.04439576653241262</v>
       </c>
       <c r="E13">
-        <v>0.06593511086294269</v>
+        <v>0.002548931429812949</v>
       </c>
       <c r="F13">
-        <v>0.08818073237283446</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.0349439018058806</v>
+      </c>
+      <c r="G13">
+        <v>0.1578513620400243</v>
+      </c>
+      <c r="H13">
+        <v>-0.06205939874289575</v>
+      </c>
+      <c r="I13">
+        <v>-0.04290893639814395</v>
+      </c>
+      <c r="J13">
+        <v>0.2242023421884494</v>
+      </c>
+      <c r="K13">
+        <v>-0.2029591715279426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.01402279131242446</v>
+        <v>0.02259735302803815</v>
       </c>
       <c r="C14">
-        <v>0.0819567130250384</v>
+        <v>-0.07281532178373032</v>
       </c>
       <c r="D14">
-        <v>-0.05407119545690812</v>
+        <v>-0.04588728784461303</v>
       </c>
       <c r="E14">
-        <v>-0.001705057903971638</v>
+        <v>0.01403939178334327</v>
       </c>
       <c r="F14">
-        <v>0.04209181968175515</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03570809306129542</v>
+      </c>
+      <c r="G14">
+        <v>0.02316480876984986</v>
+      </c>
+      <c r="H14">
+        <v>0.05520411166513627</v>
+      </c>
+      <c r="I14">
+        <v>-0.09822862917482299</v>
+      </c>
+      <c r="J14">
+        <v>0.1814365857847177</v>
+      </c>
+      <c r="K14">
+        <v>-0.008713373498973075</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.004716113988267623</v>
+        <v>0.004126403548854075</v>
       </c>
       <c r="C15">
-        <v>0.07729907789173274</v>
+        <v>-0.07049237938134253</v>
       </c>
       <c r="D15">
-        <v>-0.02929306684634648</v>
+        <v>-0.03243826563218184</v>
       </c>
       <c r="E15">
-        <v>0.01505027581044061</v>
+        <v>-0.008516075205692952</v>
       </c>
       <c r="F15">
-        <v>-0.002327360321153709</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.03495936236346257</v>
+      </c>
+      <c r="G15">
+        <v>0.01387751396759428</v>
+      </c>
+      <c r="H15">
+        <v>0.03892250785539831</v>
+      </c>
+      <c r="I15">
+        <v>-0.03974522316717032</v>
+      </c>
+      <c r="J15">
+        <v>0.06770937068831467</v>
+      </c>
+      <c r="K15">
+        <v>0.01621376938859994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.008671485565554714</v>
+        <v>0.01767490304395219</v>
       </c>
       <c r="C16">
-        <v>0.05416286797748418</v>
+        <v>-0.06012170480261614</v>
       </c>
       <c r="D16">
-        <v>-0.02927724564437459</v>
+        <v>-0.02701788763198553</v>
       </c>
       <c r="E16">
-        <v>-0.0239225345703997</v>
+        <v>-0.00726477107402114</v>
       </c>
       <c r="F16">
-        <v>0.003585813159533196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.001088228153481074</v>
+      </c>
+      <c r="G16">
+        <v>-0.006341053772088001</v>
+      </c>
+      <c r="H16">
+        <v>0.008466511956668603</v>
+      </c>
+      <c r="I16">
+        <v>-0.006126370140907907</v>
+      </c>
+      <c r="J16">
+        <v>0.02239923218333653</v>
+      </c>
+      <c r="K16">
+        <v>0.02089095859639171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1292,25 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1327,25 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1362,270 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.01188666130918588</v>
+        <v>0.01751679556528516</v>
       </c>
       <c r="C20">
-        <v>0.09604667625756363</v>
+        <v>-0.08554391631957314</v>
       </c>
       <c r="D20">
-        <v>-0.04489168917662816</v>
+        <v>-0.02776003922855342</v>
       </c>
       <c r="E20">
-        <v>-0.05587479540659136</v>
+        <v>0.001325335719036201</v>
       </c>
       <c r="F20">
-        <v>0.006295407439612416</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01320438127229566</v>
+      </c>
+      <c r="G20">
+        <v>-0.02072640093223839</v>
+      </c>
+      <c r="H20">
+        <v>0.04116759071471866</v>
+      </c>
+      <c r="I20">
+        <v>-0.03832136816936158</v>
+      </c>
+      <c r="J20">
+        <v>0.05701098565435248</v>
+      </c>
+      <c r="K20">
+        <v>0.0142717325314154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.007611629350846758</v>
+        <v>0.01453082399917655</v>
       </c>
       <c r="C21">
-        <v>0.07740612787600035</v>
+        <v>-0.06840912733106223</v>
       </c>
       <c r="D21">
-        <v>-0.003799694010805004</v>
+        <v>-0.01680324055051932</v>
       </c>
       <c r="E21">
-        <v>0.02404516149786122</v>
+        <v>0.02362619359820218</v>
       </c>
       <c r="F21">
-        <v>0.09731628960360124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.06986702946180706</v>
+      </c>
+      <c r="G21">
+        <v>0.06107803941052051</v>
+      </c>
+      <c r="H21">
+        <v>0.04930458090425623</v>
+      </c>
+      <c r="I21">
+        <v>-0.02634426817913438</v>
+      </c>
+      <c r="J21">
+        <v>0.1258254449390606</v>
+      </c>
+      <c r="K21">
+        <v>-0.02157974369795414</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.001899712895453684</v>
+        <v>0.009548809575537302</v>
       </c>
       <c r="C22">
-        <v>0.2593582685488063</v>
+        <v>-0.1687300323281122</v>
       </c>
       <c r="D22">
-        <v>0.08598837985584108</v>
+        <v>-0.01950264866508586</v>
       </c>
       <c r="E22">
-        <v>0.3604130909131961</v>
+        <v>0.02946091654579215</v>
       </c>
       <c r="F22">
-        <v>-0.256258782391343</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.3468676687344182</v>
+      </c>
+      <c r="G22">
+        <v>0.3932986655725519</v>
+      </c>
+      <c r="H22">
+        <v>-0.2384960532044181</v>
+      </c>
+      <c r="I22">
+        <v>0.09041804895675215</v>
+      </c>
+      <c r="J22">
+        <v>-0.2358948725788154</v>
+      </c>
+      <c r="K22">
+        <v>-0.001748252141601747</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.0009858132835849499</v>
+        <v>0.01468520556100516</v>
       </c>
       <c r="C23">
-        <v>0.2627062464046288</v>
+        <v>-0.171762361858793</v>
       </c>
       <c r="D23">
-        <v>0.09081667204794355</v>
+        <v>-0.01924899707071264</v>
       </c>
       <c r="E23">
-        <v>0.3544760351558628</v>
+        <v>0.02586920441995296</v>
       </c>
       <c r="F23">
-        <v>-0.2535990843047208</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.3363230998281155</v>
+      </c>
+      <c r="G23">
+        <v>0.3832133994548809</v>
+      </c>
+      <c r="H23">
+        <v>-0.225737309906606</v>
+      </c>
+      <c r="I23">
+        <v>0.08700890857794011</v>
+      </c>
+      <c r="J23">
+        <v>-0.2173875295488727</v>
+      </c>
+      <c r="K23">
+        <v>0.003616707824201662</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.006404869636642211</v>
+        <v>0.01828701250797909</v>
       </c>
       <c r="C24">
-        <v>0.05992775472635146</v>
+        <v>-0.06369955698636913</v>
       </c>
       <c r="D24">
-        <v>-0.04838696155206403</v>
+        <v>-0.04099555239026911</v>
       </c>
       <c r="E24">
-        <v>-0.02944011728299553</v>
+        <v>-0.01317706043577272</v>
       </c>
       <c r="F24">
-        <v>0.0005034090921646894</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.0001411244052297872</v>
+      </c>
+      <c r="G24">
+        <v>-0.007821728334825254</v>
+      </c>
+      <c r="H24">
+        <v>0.01418298093603687</v>
+      </c>
+      <c r="I24">
+        <v>-0.01609989979261441</v>
+      </c>
+      <c r="J24">
+        <v>0.03922816794840438</v>
+      </c>
+      <c r="K24">
+        <v>0.02203531755475354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.007646256846801979</v>
+        <v>0.0230789817177272</v>
       </c>
       <c r="C25">
-        <v>0.06404043183931886</v>
+        <v>-0.06751258683549412</v>
       </c>
       <c r="D25">
-        <v>-0.02656005675791765</v>
+        <v>-0.03416163879874771</v>
       </c>
       <c r="E25">
-        <v>-0.03228392845880977</v>
+        <v>-0.01947065953581342</v>
       </c>
       <c r="F25">
-        <v>0.006802748022371271</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.003190639179819057</v>
+      </c>
+      <c r="G25">
+        <v>-0.006100872641404744</v>
+      </c>
+      <c r="H25">
+        <v>0.01724829524498818</v>
+      </c>
+      <c r="I25">
+        <v>-0.007675481992457864</v>
+      </c>
+      <c r="J25">
+        <v>0.03576502520525828</v>
+      </c>
+      <c r="K25">
+        <v>0.008972200831867758</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.01198891243464846</v>
+        <v>0.02342271803197122</v>
       </c>
       <c r="C26">
-        <v>0.04599658398501549</v>
+        <v>-0.05285618503256944</v>
       </c>
       <c r="D26">
-        <v>-0.08490365150617327</v>
+        <v>-0.06181928297703082</v>
       </c>
       <c r="E26">
-        <v>-0.02425099488305049</v>
+        <v>-0.007265409200588786</v>
       </c>
       <c r="F26">
-        <v>0.03230582350040404</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.00571143317521914</v>
+      </c>
+      <c r="G26">
+        <v>-0.01210664813101868</v>
+      </c>
+      <c r="H26">
+        <v>0.04006422739328003</v>
+      </c>
+      <c r="I26">
+        <v>0.009446621358930343</v>
+      </c>
+      <c r="J26">
+        <v>0.1162837982336175</v>
+      </c>
+      <c r="K26">
+        <v>0.07404810667458099</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1642,340 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3437179570109213</v>
+        <v>0.302699018486856</v>
       </c>
       <c r="C28">
-        <v>-0.1014654310616112</v>
+        <v>0.1284180321474839</v>
       </c>
       <c r="D28">
-        <v>0.03198838236862426</v>
+        <v>0.0338200801277675</v>
       </c>
       <c r="E28">
-        <v>-0.0006528175917609758</v>
+        <v>0.01294196359515355</v>
       </c>
       <c r="F28">
-        <v>-0.04144558004561841</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.01755271279493471</v>
+      </c>
+      <c r="G28">
+        <v>0.05296237819525079</v>
+      </c>
+      <c r="H28">
+        <v>0.0566987765808488</v>
+      </c>
+      <c r="I28">
+        <v>0.08351989300702381</v>
+      </c>
+      <c r="J28">
+        <v>0.02327847100574411</v>
+      </c>
+      <c r="K28">
+        <v>-0.212663350485802</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.008056661395987715</v>
+        <v>0.01863177780416747</v>
       </c>
       <c r="C29">
-        <v>0.07690176995168352</v>
+        <v>-0.0808312081678766</v>
       </c>
       <c r="D29">
-        <v>-0.05728166859867046</v>
+        <v>-0.04665870897440004</v>
       </c>
       <c r="E29">
-        <v>-0.01990807313840351</v>
+        <v>-0.01299767952862145</v>
       </c>
       <c r="F29">
-        <v>0.03652418092660452</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03867156161321899</v>
+      </c>
+      <c r="G29">
+        <v>0.02141611183979149</v>
+      </c>
+      <c r="H29">
+        <v>0.0631132639728397</v>
+      </c>
+      <c r="I29">
+        <v>-0.1572964149745532</v>
+      </c>
+      <c r="J29">
+        <v>0.2527647132802811</v>
+      </c>
+      <c r="K29">
+        <v>-0.04272571434885886</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.02349209059600918</v>
+        <v>0.03942268895890075</v>
       </c>
       <c r="C30">
-        <v>0.1641460525828452</v>
+        <v>-0.1443391263507222</v>
       </c>
       <c r="D30">
-        <v>-0.06470655520462955</v>
+        <v>-0.05351521818901094</v>
       </c>
       <c r="E30">
-        <v>0.03414387508742779</v>
+        <v>-0.008802706516161388</v>
       </c>
       <c r="F30">
-        <v>-0.01948879005209118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.03950579143337617</v>
+      </c>
+      <c r="G30">
+        <v>0.02957159868929717</v>
+      </c>
+      <c r="H30">
+        <v>0.03280661524807645</v>
+      </c>
+      <c r="I30">
+        <v>-0.0492804582350555</v>
+      </c>
+      <c r="J30">
+        <v>0.03296210156881163</v>
+      </c>
+      <c r="K30">
+        <v>0.07457865252645193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.002630362984826327</v>
+        <v>0.01614693465284769</v>
       </c>
       <c r="C31">
-        <v>0.05414191447837077</v>
+        <v>-0.07513024258338674</v>
       </c>
       <c r="D31">
-        <v>-0.03631822785784123</v>
+        <v>-0.04205856824788606</v>
       </c>
       <c r="E31">
-        <v>-0.01036157562337268</v>
+        <v>-0.0005874164177357306</v>
       </c>
       <c r="F31">
-        <v>-0.002518138136757838</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.01063974577749832</v>
+      </c>
+      <c r="G31">
+        <v>0.00631102087773478</v>
+      </c>
+      <c r="H31">
+        <v>0.03394199100923129</v>
+      </c>
+      <c r="I31">
+        <v>0.01045178619891703</v>
+      </c>
+      <c r="J31">
+        <v>0.03235567384238974</v>
+      </c>
+      <c r="K31">
+        <v>0.009781703524686542</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.01103261701212671</v>
+        <v>0.02181859924749228</v>
       </c>
       <c r="C32">
-        <v>0.07989128460557117</v>
+        <v>-0.04883733145877831</v>
       </c>
       <c r="D32">
-        <v>-0.01825224647165846</v>
+        <v>-0.02849669455598751</v>
       </c>
       <c r="E32">
-        <v>0.1597852589482917</v>
+        <v>0.0007478929724213478</v>
       </c>
       <c r="F32">
-        <v>0.01431874111137502</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.003630270223570712</v>
+      </c>
+      <c r="G32">
+        <v>0.1105680079334637</v>
+      </c>
+      <c r="H32">
+        <v>-0.02270035237327673</v>
+      </c>
+      <c r="I32">
+        <v>-0.04521993401657989</v>
+      </c>
+      <c r="J32">
+        <v>0.175546970824797</v>
+      </c>
+      <c r="K32">
+        <v>-0.2662238725378774</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.009574616976937801</v>
+        <v>0.01835971512023925</v>
       </c>
       <c r="C33">
-        <v>0.09359002090684253</v>
+        <v>-0.100224992066993</v>
       </c>
       <c r="D33">
-        <v>-0.06365613781781838</v>
+        <v>-0.05127498657028174</v>
       </c>
       <c r="E33">
-        <v>-0.02203999116336375</v>
+        <v>3.00589107058119e-05</v>
       </c>
       <c r="F33">
-        <v>0.006443877942928865</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.01802693718807304</v>
+      </c>
+      <c r="G33">
+        <v>0.01204372729867864</v>
+      </c>
+      <c r="H33">
+        <v>0.01132773651499712</v>
+      </c>
+      <c r="I33">
+        <v>-0.02895260497891621</v>
+      </c>
+      <c r="J33">
+        <v>0.05932059706730333</v>
+      </c>
+      <c r="K33">
+        <v>-0.01743653350407021</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.005208341959958153</v>
+        <v>0.01834089406476801</v>
       </c>
       <c r="C34">
-        <v>0.04682125758823998</v>
+        <v>-0.0494342394543952</v>
       </c>
       <c r="D34">
-        <v>-0.0246394047312493</v>
+        <v>-0.02155015385532327</v>
       </c>
       <c r="E34">
-        <v>-0.01530025151010826</v>
+        <v>-0.01681272333047943</v>
       </c>
       <c r="F34">
-        <v>0.02241411498666268</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.007136778764773497</v>
+      </c>
+      <c r="G34">
+        <v>-0.006662049023344842</v>
+      </c>
+      <c r="H34">
+        <v>0.01514471753131735</v>
+      </c>
+      <c r="I34">
+        <v>-0.0269027398479918</v>
+      </c>
+      <c r="J34">
+        <v>-0.003009172301283315</v>
+      </c>
+      <c r="K34">
+        <v>0.01149637342798768</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.00268203661043684</v>
+        <v>0.0126867271991088</v>
       </c>
       <c r="C35">
-        <v>0.03058159300101693</v>
+        <v>-0.04984952403471153</v>
       </c>
       <c r="D35">
-        <v>-0.0161355057859643</v>
+        <v>-0.02344585945861145</v>
       </c>
       <c r="E35">
-        <v>-0.007797231495397063</v>
+        <v>0.002820381099598447</v>
       </c>
       <c r="F35">
-        <v>0.01306661431168942</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>-0.00519976379103607</v>
+      </c>
+      <c r="G35">
+        <v>0.01052213728280218</v>
+      </c>
+      <c r="H35">
+        <v>0.0596062921703439</v>
+      </c>
+      <c r="I35">
+        <v>-0.06857759761252229</v>
+      </c>
+      <c r="J35">
+        <v>0.1237569295546058</v>
+      </c>
+      <c r="K35">
+        <v>-0.04097734172232693</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.008605882240613509</v>
+        <v>0.01436398399842993</v>
       </c>
       <c r="C36">
-        <v>0.04563588037771164</v>
+        <v>-0.04447496935190586</v>
       </c>
       <c r="D36">
-        <v>-0.05216801070269046</v>
+        <v>-0.03946604688654145</v>
       </c>
       <c r="E36">
-        <v>-0.01640604830579869</v>
+        <v>0.005977914619378031</v>
       </c>
       <c r="F36">
-        <v>0.006782176631876006</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.0117353175155629</v>
+      </c>
+      <c r="G36">
+        <v>0.009938909480348151</v>
+      </c>
+      <c r="H36">
+        <v>0.02864170008329744</v>
+      </c>
+      <c r="I36">
+        <v>0.001871751844557937</v>
+      </c>
+      <c r="J36">
+        <v>0.08837924473097421</v>
+      </c>
+      <c r="K36">
+        <v>0.02519913508786622</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1992,165 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.02719129457405974</v>
+        <v>0.01195687739942148</v>
       </c>
       <c r="C38">
-        <v>0.04383707996793878</v>
+        <v>-0.05869551317956596</v>
       </c>
       <c r="D38">
-        <v>-0.03839328240815999</v>
+        <v>-0.03823995552192318</v>
       </c>
       <c r="E38">
-        <v>-0.02776750392576121</v>
+        <v>0.03209848849106377</v>
       </c>
       <c r="F38">
-        <v>0.002260576146680783</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.03387109024039775</v>
+      </c>
+      <c r="G38">
+        <v>-0.001118683323371705</v>
+      </c>
+      <c r="H38">
+        <v>0.02145458092114824</v>
+      </c>
+      <c r="I38">
+        <v>-0.03276296144947668</v>
+      </c>
+      <c r="J38">
+        <v>0.07603040137883185</v>
+      </c>
+      <c r="K38">
+        <v>-0.07142932315039797</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.005274496842095268</v>
+        <v>0.02689955499864229</v>
       </c>
       <c r="C39">
-        <v>0.1231489252436421</v>
+        <v>-0.127830046495274</v>
       </c>
       <c r="D39">
-        <v>-0.06380733431160138</v>
+        <v>-0.0590896628785355</v>
       </c>
       <c r="E39">
-        <v>-0.02098930919361107</v>
+        <v>-0.00922066933571767</v>
       </c>
       <c r="F39">
-        <v>0.03198477321887451</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.01427984933105438</v>
+      </c>
+      <c r="G39">
+        <v>-0.0102474667806255</v>
+      </c>
+      <c r="H39">
+        <v>0.02935181821534712</v>
+      </c>
+      <c r="I39">
+        <v>-0.06114702579131764</v>
+      </c>
+      <c r="J39">
+        <v>0.02474524660466588</v>
+      </c>
+      <c r="K39">
+        <v>0.1007521195850307</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.01634301039220451</v>
+        <v>0.02409401692772806</v>
       </c>
       <c r="C40">
-        <v>0.05267454913224467</v>
+        <v>-0.07905274171242838</v>
       </c>
       <c r="D40">
-        <v>-0.02461980847226299</v>
+        <v>-0.03909562190862879</v>
       </c>
       <c r="E40">
-        <v>0.02440590596563458</v>
+        <v>-0.007123682521665061</v>
       </c>
       <c r="F40">
-        <v>-0.02129562565147526</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.008383929836749583</v>
+      </c>
+      <c r="G40">
+        <v>0.02737029287330795</v>
+      </c>
+      <c r="H40">
+        <v>-0.02340567965259654</v>
+      </c>
+      <c r="I40">
+        <v>-0.1005481127804997</v>
+      </c>
+      <c r="J40">
+        <v>0.07215054201003854</v>
+      </c>
+      <c r="K40">
+        <v>-0.04919870796215513</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.01200358885472341</v>
+        <v>0.02288237989750803</v>
       </c>
       <c r="C41">
-        <v>0.02422161021930357</v>
+        <v>-0.04464632297054336</v>
       </c>
       <c r="D41">
-        <v>-0.003735496147221454</v>
+        <v>-0.01479934342070105</v>
       </c>
       <c r="E41">
-        <v>-0.01479313130715656</v>
+        <v>-0.002556414593354951</v>
       </c>
       <c r="F41">
-        <v>-0.0008563361236221579</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.004872797324359543</v>
+      </c>
+      <c r="G41">
+        <v>-0.01232137168686518</v>
+      </c>
+      <c r="H41">
+        <v>0.006282866305191306</v>
+      </c>
+      <c r="I41">
+        <v>0.003544510787635288</v>
+      </c>
+      <c r="J41">
+        <v>0.02894370235624838</v>
+      </c>
+      <c r="K41">
+        <v>-0.03130604814982052</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2167,95 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.006487866065705158</v>
+        <v>0.02071030960350827</v>
       </c>
       <c r="C43">
-        <v>0.02565269901872735</v>
+        <v>-0.04534634833739343</v>
       </c>
       <c r="D43">
-        <v>-0.02450511006549061</v>
+        <v>-0.02710421294279117</v>
       </c>
       <c r="E43">
-        <v>-0.008084301237188025</v>
+        <v>-0.002806379959965819</v>
       </c>
       <c r="F43">
-        <v>-0.006204038570506137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.008012043698153429</v>
+      </c>
+      <c r="G43">
+        <v>-0.01133308560041987</v>
+      </c>
+      <c r="H43">
+        <v>0.01389774235410648</v>
+      </c>
+      <c r="I43">
+        <v>-0.00656792914437266</v>
+      </c>
+      <c r="J43">
+        <v>0.03929971141755083</v>
+      </c>
+      <c r="K43">
+        <v>-0.001830003929315368</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.01080558568353647</v>
+        <v>0.01972405834253039</v>
       </c>
       <c r="C44">
-        <v>0.1094522501450676</v>
+        <v>-0.09894244236098895</v>
       </c>
       <c r="D44">
-        <v>-0.04822084060697164</v>
+        <v>-0.06350210427089628</v>
       </c>
       <c r="E44">
-        <v>0.03541642901103688</v>
+        <v>0.01250305414844053</v>
       </c>
       <c r="F44">
-        <v>-0.03151820130169556</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.05431874149645575</v>
+      </c>
+      <c r="G44">
+        <v>0.03501626539113634</v>
+      </c>
+      <c r="H44">
+        <v>-0.007068121860762671</v>
+      </c>
+      <c r="I44">
+        <v>-0.04734960476547887</v>
+      </c>
+      <c r="J44">
+        <v>0.05532076876361979</v>
+      </c>
+      <c r="K44">
+        <v>0.07885593759692346</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2272,235 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.00469389569246208</v>
+        <v>0.00727035998475459</v>
       </c>
       <c r="C46">
-        <v>0.06929708076943619</v>
+        <v>-0.06856777684783627</v>
       </c>
       <c r="D46">
-        <v>-0.06824771856323018</v>
+        <v>-0.02651471543747961</v>
       </c>
       <c r="E46">
-        <v>-0.002242924618349984</v>
+        <v>0.01720335966644512</v>
       </c>
       <c r="F46">
-        <v>0.01644349506942729</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.01811063668806726</v>
+      </c>
+      <c r="G46">
+        <v>-0.005538814201857901</v>
+      </c>
+      <c r="H46">
+        <v>0.01299094499462611</v>
+      </c>
+      <c r="I46">
+        <v>-0.01668936403466838</v>
+      </c>
+      <c r="J46">
+        <v>0.09705883962299225</v>
+      </c>
+      <c r="K46">
+        <v>0.002289856800841167</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.009178444241031203</v>
+        <v>0.02183569787769398</v>
       </c>
       <c r="C47">
-        <v>0.05734671703177078</v>
+        <v>-0.06795897500258888</v>
       </c>
       <c r="D47">
-        <v>-0.04431373773599612</v>
+        <v>-0.04610552984646595</v>
       </c>
       <c r="E47">
-        <v>-0.03461252398674049</v>
+        <v>-0.01162525423226465</v>
       </c>
       <c r="F47">
-        <v>0.04006462916611981</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.003898007914345175</v>
+      </c>
+      <c r="G47">
+        <v>-0.005320895488037148</v>
+      </c>
+      <c r="H47">
+        <v>0.02216268158747883</v>
+      </c>
+      <c r="I47">
+        <v>-0.004990943043770386</v>
+      </c>
+      <c r="J47">
+        <v>0.0691645765028043</v>
+      </c>
+      <c r="K47">
+        <v>-0.02349437801441366</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.01082044778820491</v>
+        <v>0.01804432645572391</v>
       </c>
       <c r="C48">
-        <v>0.05326580392149833</v>
+        <v>-0.04784795416398187</v>
       </c>
       <c r="D48">
-        <v>-0.07322291762234175</v>
+        <v>-0.05437045536958399</v>
       </c>
       <c r="E48">
-        <v>-0.03168486500677239</v>
+        <v>-0.01524933117460345</v>
       </c>
       <c r="F48">
-        <v>0.007559821723471858</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01875958540305632</v>
+      </c>
+      <c r="G48">
+        <v>0.005246750273340616</v>
+      </c>
+      <c r="H48">
+        <v>0.04446460275229976</v>
+      </c>
+      <c r="I48">
+        <v>0.01580049796230951</v>
+      </c>
+      <c r="J48">
+        <v>0.1161713600561977</v>
+      </c>
+      <c r="K48">
+        <v>0.05282317545875368</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.02563116728898413</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>-0.05624891037156488</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>-0.01742522202995977</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>-0.05128573545683352</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-0.03709416968877878</v>
+      </c>
+      <c r="G49">
+        <v>-0.06762453713374822</v>
+      </c>
+      <c r="H49">
+        <v>0.03934546440378977</v>
+      </c>
+      <c r="I49">
+        <v>-0.09662347887597297</v>
+      </c>
+      <c r="J49">
+        <v>-0.1089077398166444</v>
+      </c>
+      <c r="K49">
+        <v>0.05967653520486674</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.003229403947761231</v>
+        <v>0.01713786964573734</v>
       </c>
       <c r="C50">
-        <v>0.057577580632391</v>
+        <v>-0.07354449596161862</v>
       </c>
       <c r="D50">
-        <v>-0.03609920609083719</v>
+        <v>-0.03212094046910238</v>
       </c>
       <c r="E50">
-        <v>0.004443932397746318</v>
+        <v>-0.007221500442935858</v>
       </c>
       <c r="F50">
-        <v>-0.01003736912961892</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.02081226763965453</v>
+      </c>
+      <c r="G50">
+        <v>0.007098768078017775</v>
+      </c>
+      <c r="H50">
+        <v>0.03707079553178572</v>
+      </c>
+      <c r="I50">
+        <v>-0.01591755641958509</v>
+      </c>
+      <c r="J50">
+        <v>0.05355061104013045</v>
+      </c>
+      <c r="K50">
+        <v>-0.04817889475333591</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.002119512539132814</v>
+        <v>-0.004379875790470557</v>
       </c>
       <c r="C51">
-        <v>0.07346920504379773</v>
+        <v>-0.03569522865943544</v>
       </c>
       <c r="D51">
-        <v>-0.04054307647289557</v>
+        <v>-0.02407872698724649</v>
       </c>
       <c r="E51">
-        <v>0.02963942957987854</v>
+        <v>0.01975176990370279</v>
       </c>
       <c r="F51">
-        <v>-0.009465060581236206</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.008235352224393797</v>
+      </c>
+      <c r="G51">
+        <v>0.01938587222814625</v>
+      </c>
+      <c r="H51">
+        <v>0.02033330824948281</v>
+      </c>
+      <c r="I51">
+        <v>-0.02678016468039386</v>
+      </c>
+      <c r="J51">
+        <v>0.1087497517746126</v>
+      </c>
+      <c r="K51">
+        <v>0.04317049750357055</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2517,165 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.03131336352760267</v>
+        <v>0.06421328516919468</v>
       </c>
       <c r="C53">
-        <v>0.1036163042721884</v>
+        <v>-0.1284902687089358</v>
       </c>
       <c r="D53">
-        <v>-0.05717861063407155</v>
+        <v>-0.05831624769371437</v>
       </c>
       <c r="E53">
-        <v>-0.0879591781629494</v>
+        <v>-0.01404272784788286</v>
       </c>
       <c r="F53">
-        <v>-0.004906986498217474</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.04575152742112862</v>
+      </c>
+      <c r="G53">
+        <v>-0.03711106125817488</v>
+      </c>
+      <c r="H53">
+        <v>0.03151358409756192</v>
+      </c>
+      <c r="I53">
+        <v>0.09080473286549065</v>
+      </c>
+      <c r="J53">
+        <v>-0.04410484814026356</v>
+      </c>
+      <c r="K53">
+        <v>-0.03033722306473552</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.005945127057251064</v>
+        <v>0.01844595034527709</v>
       </c>
       <c r="C54">
-        <v>0.07248525192933514</v>
+        <v>-0.0713110355039769</v>
       </c>
       <c r="D54">
-        <v>-0.02108123125229663</v>
+        <v>-0.0110784086617255</v>
       </c>
       <c r="E54">
-        <v>-0.0407530584659993</v>
+        <v>-0.001138039946628732</v>
       </c>
       <c r="F54">
-        <v>-0.004967626053578277</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.002021950340779882</v>
+      </c>
+      <c r="G54">
+        <v>-0.0009422153316068594</v>
+      </c>
+      <c r="H54">
+        <v>0.008504206851840005</v>
+      </c>
+      <c r="I54">
+        <v>-0.006564464580051307</v>
+      </c>
+      <c r="J54">
+        <v>0.06120935700015402</v>
+      </c>
+      <c r="K54">
+        <v>0.02524363645994003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.0151666443281999</v>
+        <v>0.03292692263839706</v>
       </c>
       <c r="C55">
-        <v>0.05500125286775633</v>
+        <v>-0.08093372512038455</v>
       </c>
       <c r="D55">
-        <v>-0.05714438378035089</v>
+        <v>-0.05388601739654298</v>
       </c>
       <c r="E55">
-        <v>-0.05991906142190227</v>
+        <v>-0.01516402567268463</v>
       </c>
       <c r="F55">
-        <v>0.02399905336783278</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.02728675613219404</v>
+      </c>
+      <c r="G55">
+        <v>-0.02709682547591846</v>
+      </c>
+      <c r="H55">
+        <v>0.00970817532527091</v>
+      </c>
+      <c r="I55">
+        <v>0.04160032346705841</v>
+      </c>
+      <c r="J55">
+        <v>-0.005637290987288192</v>
+      </c>
+      <c r="K55">
+        <v>0.005372609445028546</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.01249285433085761</v>
+        <v>0.05840081215277183</v>
       </c>
       <c r="C56">
-        <v>0.1363047698817398</v>
+        <v>-0.1596399879445384</v>
       </c>
       <c r="D56">
-        <v>-0.06404089645398764</v>
+        <v>-0.08567595001846783</v>
       </c>
       <c r="E56">
-        <v>-0.0549320272277568</v>
+        <v>-0.03092940532470812</v>
       </c>
       <c r="F56">
-        <v>0.01676054103335743</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.09773615024141759</v>
+      </c>
+      <c r="G56">
+        <v>-0.0518064920614625</v>
+      </c>
+      <c r="H56">
+        <v>0.07374096463351416</v>
+      </c>
+      <c r="I56">
+        <v>0.1728185320755499</v>
+      </c>
+      <c r="J56">
+        <v>-0.08062794655945567</v>
+      </c>
+      <c r="K56">
+        <v>-0.009448868968451131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,250 +2692,445 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.02144379411049556</v>
+        <v>0.0185946828338376</v>
       </c>
       <c r="C58">
-        <v>0.2758440912055069</v>
+        <v>-0.1673911706344405</v>
       </c>
       <c r="D58">
-        <v>0.02055062460066729</v>
+        <v>-0.04323371534081854</v>
       </c>
       <c r="E58">
-        <v>0.1886504424437655</v>
+        <v>0.08245020251593846</v>
       </c>
       <c r="F58">
-        <v>-0.1517876205888508</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.2100650208765266</v>
+      </c>
+      <c r="G58">
+        <v>0.260915973317784</v>
+      </c>
+      <c r="H58">
+        <v>0.01599534510172122</v>
+      </c>
+      <c r="I58">
+        <v>0.02948361173770818</v>
+      </c>
+      <c r="J58">
+        <v>0.1628029156603408</v>
+      </c>
+      <c r="K58">
+        <v>0.04216423426283246</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.291265796246336</v>
+        <v>0.2860452025866602</v>
       </c>
       <c r="C59">
-        <v>-0.001917897450818461</v>
+        <v>0.06157266109809426</v>
       </c>
       <c r="D59">
-        <v>0.01727476854707314</v>
+        <v>0.01021144674000521</v>
       </c>
       <c r="E59">
-        <v>0.06076150999176224</v>
+        <v>0.01000608867014794</v>
       </c>
       <c r="F59">
-        <v>0.04262190564510408</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01267906738801062</v>
+      </c>
+      <c r="G59">
+        <v>0.06033532514903427</v>
+      </c>
+      <c r="H59">
+        <v>-0.02390486901599281</v>
+      </c>
+      <c r="I59">
+        <v>0.007377443158603066</v>
+      </c>
+      <c r="J59">
+        <v>-0.00598628030573599</v>
+      </c>
+      <c r="K59">
+        <v>-0.0352905492474262</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1288596426700114</v>
+        <v>0.1603494357314462</v>
       </c>
       <c r="C60">
-        <v>0.1470955425762332</v>
+        <v>-0.1602582427687651</v>
       </c>
       <c r="D60">
-        <v>-0.07206035085620208</v>
+        <v>-0.03327817083483339</v>
       </c>
       <c r="E60">
-        <v>-0.1413890142925759</v>
+        <v>-0.08065888854663032</v>
       </c>
       <c r="F60">
-        <v>0.2424411767249907</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.117911748550728</v>
+      </c>
+      <c r="G60">
+        <v>-0.1047112481646941</v>
+      </c>
+      <c r="H60">
+        <v>-0.2731341107172338</v>
+      </c>
+      <c r="I60">
+        <v>-0.1196339663650106</v>
+      </c>
+      <c r="J60">
+        <v>-0.1221878220318811</v>
+      </c>
+      <c r="K60">
+        <v>0.05227927088995438</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.006612275350478279</v>
+        <v>0.02770129118012088</v>
       </c>
       <c r="C61">
-        <v>0.08708699944089392</v>
+        <v>-0.09864023834335381</v>
       </c>
       <c r="D61">
-        <v>-0.07709431342460539</v>
+        <v>-0.05468131026964126</v>
       </c>
       <c r="E61">
-        <v>-0.04495186058341405</v>
+        <v>-0.01640020778828766</v>
       </c>
       <c r="F61">
-        <v>0.03675646404625294</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.01667761999740137</v>
+      </c>
+      <c r="G61">
+        <v>-0.02605426406374521</v>
+      </c>
+      <c r="H61">
+        <v>0.03682321326715757</v>
+      </c>
+      <c r="I61">
+        <v>-0.04012680430272497</v>
+      </c>
+      <c r="J61">
+        <v>0.03019790670494456</v>
+      </c>
+      <c r="K61">
+        <v>0.03256665120255142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.001804920118301292</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>-0.01598585414164224</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>-0.005058434609502725</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>-0.02919022688755107</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>0.02239935294625289</v>
+      </c>
+      <c r="G62">
+        <v>0.007477014731052776</v>
+      </c>
+      <c r="H62">
+        <v>0.001686924901237812</v>
+      </c>
+      <c r="I62">
+        <v>-0.02404304388514784</v>
+      </c>
+      <c r="J62">
+        <v>0.01546180756321251</v>
+      </c>
+      <c r="K62">
+        <v>-0.007333882119042381</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.0008572262698055348</v>
+        <v>0.0278314349267414</v>
       </c>
       <c r="C63">
-        <v>0.05287847425208517</v>
+        <v>-0.06202477327508886</v>
       </c>
       <c r="D63">
-        <v>-0.0474133882198985</v>
+        <v>-0.06029112722969996</v>
       </c>
       <c r="E63">
-        <v>-0.01177209239678438</v>
+        <v>-0.007106226199038695</v>
       </c>
       <c r="F63">
-        <v>-0.004102697567494258</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.00957011696244037</v>
+      </c>
+      <c r="G63">
+        <v>-0.005109876490951561</v>
+      </c>
+      <c r="H63">
+        <v>0.04268016989442654</v>
+      </c>
+      <c r="I63">
+        <v>-0.01033864285950645</v>
+      </c>
+      <c r="J63">
+        <v>0.0472178385933251</v>
+      </c>
+      <c r="K63">
+        <v>0.01501838777906884</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.002972542571582965</v>
+        <v>0.01597257135370602</v>
       </c>
       <c r="C64">
-        <v>0.09231898393010893</v>
+        <v>-0.08548185699432855</v>
       </c>
       <c r="D64">
-        <v>-0.08451323761800422</v>
+        <v>-0.03135244377292247</v>
       </c>
       <c r="E64">
-        <v>-0.04496178934650643</v>
+        <v>-0.008062760386474934</v>
       </c>
       <c r="F64">
-        <v>-0.001676510746892796</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.0369900259748583</v>
+      </c>
+      <c r="G64">
+        <v>0.006961457431155402</v>
+      </c>
+      <c r="H64">
+        <v>-0.02927955103953991</v>
+      </c>
+      <c r="I64">
+        <v>-0.03323575640502445</v>
+      </c>
+      <c r="J64">
+        <v>0.04403148595705947</v>
+      </c>
+      <c r="K64">
+        <v>0.06804389981789608</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.02245683062771</v>
+        <v>0.03454431610036396</v>
       </c>
       <c r="C65">
-        <v>0.09882552179288724</v>
+        <v>-0.09141274295613681</v>
       </c>
       <c r="D65">
-        <v>-0.06504613301020938</v>
+        <v>-0.0206366912578171</v>
       </c>
       <c r="E65">
-        <v>-0.050777641478547</v>
+        <v>0.01749510931344995</v>
       </c>
       <c r="F65">
-        <v>0.0206195940122258</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.003556008832079261</v>
+      </c>
+      <c r="G65">
+        <v>-0.01396099603151437</v>
+      </c>
+      <c r="H65">
+        <v>-0.04748841637661161</v>
+      </c>
+      <c r="I65">
+        <v>-0.06507120709786834</v>
+      </c>
+      <c r="J65">
+        <v>0.01765641874471149</v>
+      </c>
+      <c r="K65">
+        <v>0.1037870963126814</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.002523112369949058</v>
+        <v>0.02656829157739554</v>
       </c>
       <c r="C66">
-        <v>0.1755269031636933</v>
+        <v>-0.1723845898189934</v>
       </c>
       <c r="D66">
-        <v>-0.05103081247628882</v>
+        <v>-0.05395284382944796</v>
       </c>
       <c r="E66">
-        <v>-0.003085493782996838</v>
+        <v>-0.003375029382049806</v>
       </c>
       <c r="F66">
-        <v>0.03821827804506826</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.01579787480592522</v>
+      </c>
+      <c r="G66">
+        <v>0.001968393226005723</v>
+      </c>
+      <c r="H66">
+        <v>0.04940963753813732</v>
+      </c>
+      <c r="I66">
+        <v>-0.05555242685835435</v>
+      </c>
+      <c r="J66">
+        <v>0.03174397572604173</v>
+      </c>
+      <c r="K66">
+        <v>0.07698148739846924</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.03002441337966255</v>
+        <v>0.02167196578915697</v>
       </c>
       <c r="C67">
-        <v>0.01911041777204111</v>
+        <v>-0.05151005468601103</v>
       </c>
       <c r="D67">
-        <v>-0.05249816191522904</v>
+        <v>-0.03909786800817678</v>
       </c>
       <c r="E67">
-        <v>-0.05962796211961979</v>
+        <v>0.02982001108107304</v>
       </c>
       <c r="F67">
-        <v>0.02000066274132455</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.009583069798708113</v>
+      </c>
+      <c r="G67">
+        <v>-0.02649465776953395</v>
+      </c>
+      <c r="H67">
+        <v>-0.01675547929970811</v>
+      </c>
+      <c r="I67">
+        <v>-0.03641337290882079</v>
+      </c>
+      <c r="J67">
+        <v>0.06957514412501214</v>
+      </c>
+      <c r="K67">
+        <v>-0.05895502875406237</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.2974647249594187</v>
+        <v>0.2903077662439242</v>
       </c>
       <c r="C68">
-        <v>-0.008367688172779211</v>
+        <v>0.08734935291875996</v>
       </c>
       <c r="D68">
-        <v>-0.009652015209945559</v>
+        <v>0.02744909107619236</v>
       </c>
       <c r="E68">
-        <v>0.03616729412358707</v>
+        <v>-0.01762907092614229</v>
       </c>
       <c r="F68">
-        <v>-0.01372931540550234</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01702272378469993</v>
+      </c>
+      <c r="G68">
+        <v>0.03529674340653907</v>
+      </c>
+      <c r="H68">
+        <v>0.01598029859732142</v>
+      </c>
+      <c r="I68">
+        <v>0.01835225228932456</v>
+      </c>
+      <c r="J68">
+        <v>0.03488549260859094</v>
+      </c>
+      <c r="K68">
+        <v>-0.04949308334828406</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.01101377691453873</v>
+        <v>0.009958759892124346</v>
       </c>
       <c r="C69">
-        <v>0.04521313556858153</v>
+        <v>-0.04259507666540584</v>
       </c>
       <c r="D69">
-        <v>-0.04225151677593034</v>
+        <v>-0.02431459405323235</v>
       </c>
       <c r="E69">
-        <v>-0.03571591316341949</v>
+        <v>0.01455568967090107</v>
       </c>
       <c r="F69">
-        <v>0.004408673065995833</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.006229241622209266</v>
+      </c>
+      <c r="G69">
+        <v>0.001505798808687864</v>
+      </c>
+      <c r="H69">
+        <v>-0.01641928936064391</v>
+      </c>
+      <c r="I69">
+        <v>-0.0110644246483629</v>
+      </c>
+      <c r="J69">
+        <v>0.03237491546062484</v>
+      </c>
+      <c r="K69">
+        <v>-0.03688310369951194</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,510 +3147,900 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.2858475563857709</v>
+        <v>0.2721588572473352</v>
       </c>
       <c r="C71">
-        <v>-0.03584583710805356</v>
+        <v>0.08695026891146844</v>
       </c>
       <c r="D71">
-        <v>0.01047795271173081</v>
+        <v>0.02148117869762406</v>
       </c>
       <c r="E71">
-        <v>0.03314273262952961</v>
+        <v>0.005993651434140472</v>
       </c>
       <c r="F71">
-        <v>-0.0344022578583676</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.04746739941502189</v>
+      </c>
+      <c r="G71">
+        <v>0.0474016696719798</v>
+      </c>
+      <c r="H71">
+        <v>0.0169878601221331</v>
+      </c>
+      <c r="I71">
+        <v>0.0184388920298838</v>
+      </c>
+      <c r="J71">
+        <v>0.0529517760445845</v>
+      </c>
+      <c r="K71">
+        <v>-0.1074272349168483</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.02084104325735807</v>
+        <v>0.06050945403432705</v>
       </c>
       <c r="C72">
-        <v>0.1329660912558779</v>
+        <v>-0.1347679986312864</v>
       </c>
       <c r="D72">
-        <v>-0.07339481343876013</v>
+        <v>-0.05172365885595654</v>
       </c>
       <c r="E72">
-        <v>-0.03764967313382606</v>
+        <v>-0.03652158338514471</v>
       </c>
       <c r="F72">
-        <v>-0.003505731182909248</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.02466686225294982</v>
+      </c>
+      <c r="G72">
+        <v>-0.02318703470186005</v>
+      </c>
+      <c r="H72">
+        <v>0.02424373082641602</v>
+      </c>
+      <c r="I72">
+        <v>0.002809329607382486</v>
+      </c>
+      <c r="J72">
+        <v>0.05401299674660246</v>
+      </c>
+      <c r="K72">
+        <v>0.1108476216319777</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.09931358857080422</v>
+        <v>0.1591662877137118</v>
       </c>
       <c r="C73">
-        <v>0.1106443161592771</v>
+        <v>-0.1832183106975648</v>
       </c>
       <c r="D73">
-        <v>-0.1097530824559118</v>
+        <v>-0.0694712006626742</v>
       </c>
       <c r="E73">
-        <v>-0.2226019977908197</v>
+        <v>-0.04031352280383903</v>
       </c>
       <c r="F73">
-        <v>0.2879655886476245</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.135474509498833</v>
+      </c>
+      <c r="G73">
+        <v>-0.2061884149055049</v>
+      </c>
+      <c r="H73">
+        <v>-0.4245901871718332</v>
+      </c>
+      <c r="I73">
+        <v>-0.2612780135917831</v>
+      </c>
+      <c r="J73">
+        <v>-0.1416186511115351</v>
+      </c>
+      <c r="K73">
+        <v>-0.0788720150224566</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.01845416693248167</v>
+        <v>0.04205599896575681</v>
       </c>
       <c r="C74">
-        <v>0.08164938012402372</v>
+        <v>-0.09892000030434057</v>
       </c>
       <c r="D74">
-        <v>-0.07395246132941581</v>
+        <v>-0.04545585052287127</v>
       </c>
       <c r="E74">
-        <v>-0.0561191711564486</v>
+        <v>-0.02140519140032987</v>
       </c>
       <c r="F74">
-        <v>0.02203941941359936</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.006483108138880861</v>
+      </c>
+      <c r="G74">
+        <v>-0.02920267854566831</v>
+      </c>
+      <c r="H74">
+        <v>0.01183815676384584</v>
+      </c>
+      <c r="I74">
+        <v>0.06073373819152911</v>
+      </c>
+      <c r="J74">
+        <v>0.01413535563211674</v>
+      </c>
+      <c r="K74">
+        <v>0.01759417219233648</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.03265439305916006</v>
+        <v>0.0687444861233677</v>
       </c>
       <c r="C75">
-        <v>0.1359165651137817</v>
+        <v>-0.1628162317384161</v>
       </c>
       <c r="D75">
-        <v>-0.05201662063220323</v>
+        <v>-0.08871913304229642</v>
       </c>
       <c r="E75">
-        <v>-0.108798066287515</v>
+        <v>-0.03608370384053801</v>
       </c>
       <c r="F75">
-        <v>-0.01779293728978492</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.03046267393761808</v>
+      </c>
+      <c r="G75">
+        <v>-0.09734784144778935</v>
+      </c>
+      <c r="H75">
+        <v>0.1461602113912874</v>
+      </c>
+      <c r="I75">
+        <v>0.1746174422115951</v>
+      </c>
+      <c r="J75">
+        <v>-0.07603493834013991</v>
+      </c>
+      <c r="K75">
+        <v>-0.1600530085817551</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.009492910151761369</v>
+        <v>0.05150186466229281</v>
       </c>
       <c r="C76">
-        <v>0.1000158559157074</v>
+        <v>-0.1295214836143805</v>
       </c>
       <c r="D76">
-        <v>-0.06545661603711128</v>
+        <v>-0.07780574190943031</v>
       </c>
       <c r="E76">
-        <v>-0.08688449680410122</v>
+        <v>-0.01496564366595863</v>
       </c>
       <c r="F76">
-        <v>0.02359404097363193</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.05637801720314172</v>
+      </c>
+      <c r="G76">
+        <v>-0.06086142791756384</v>
+      </c>
+      <c r="H76">
+        <v>0.06617618638168574</v>
+      </c>
+      <c r="I76">
+        <v>0.07565097990154145</v>
+      </c>
+      <c r="J76">
+        <v>-0.06974618109647734</v>
+      </c>
+      <c r="K76">
+        <v>0.006489080232562344</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.08370543717152962</v>
+        <v>0.06101218687546313</v>
       </c>
       <c r="C77">
-        <v>0.3426710411884799</v>
+        <v>-0.3936355305625314</v>
       </c>
       <c r="D77">
-        <v>0.8511044089605531</v>
+        <v>0.9013725714573323</v>
       </c>
       <c r="E77">
-        <v>-0.3078657207378496</v>
+        <v>-0.03817304778794733</v>
       </c>
       <c r="F77">
-        <v>0.0638845451314493</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.005753757780040304</v>
+      </c>
+      <c r="G77">
+        <v>-0.06421971799798518</v>
+      </c>
+      <c r="H77">
+        <v>0.09808217630843324</v>
+      </c>
+      <c r="I77">
+        <v>-0.01267363605736314</v>
+      </c>
+      <c r="J77">
+        <v>0.010996897907701</v>
+      </c>
+      <c r="K77">
+        <v>-0.03045648263135553</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.02256572729900358</v>
+        <v>0.03976830303268581</v>
       </c>
       <c r="C78">
-        <v>0.1328499392841504</v>
+        <v>-0.1148814648029716</v>
       </c>
       <c r="D78">
-        <v>-0.1326845444961693</v>
+        <v>-0.08296046613326849</v>
       </c>
       <c r="E78">
-        <v>0.07930108561090593</v>
+        <v>0.03082393418367941</v>
       </c>
       <c r="F78">
-        <v>0.08599983336383681</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04080930021395807</v>
+      </c>
+      <c r="G78">
+        <v>0.01121029177924743</v>
+      </c>
+      <c r="H78">
+        <v>0.0577419304752254</v>
+      </c>
+      <c r="I78">
+        <v>0.0581868177900854</v>
+      </c>
+      <c r="J78">
+        <v>0.06260002142638532</v>
+      </c>
+      <c r="K78">
+        <v>0.1390461527885019</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.02246607749387701</v>
+        <v>0.05913332160460966</v>
       </c>
       <c r="C79">
-        <v>0.1314269162233314</v>
+        <v>-0.1354931326192494</v>
       </c>
       <c r="D79">
-        <v>-0.08109202505222313</v>
+        <v>-0.06074073082016491</v>
       </c>
       <c r="E79">
-        <v>-0.08299652461547409</v>
+        <v>0.006923397937124727</v>
       </c>
       <c r="F79">
-        <v>0.001823753230860508</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>-0.0395747839348039</v>
+      </c>
+      <c r="G79">
+        <v>-0.02524064702225935</v>
+      </c>
+      <c r="H79">
+        <v>0.1138932616187478</v>
+      </c>
+      <c r="I79">
+        <v>0.2235556527868993</v>
+      </c>
+      <c r="J79">
+        <v>-0.01777902571342845</v>
+      </c>
+      <c r="K79">
+        <v>-0.06285942844962653</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.007345983711397901</v>
+        <v>0.02150116456344831</v>
       </c>
       <c r="C80">
-        <v>0.05718410593284641</v>
+        <v>-0.04431211420758051</v>
       </c>
       <c r="D80">
-        <v>-0.03212572843699071</v>
+        <v>-0.03344882164708061</v>
       </c>
       <c r="E80">
-        <v>0.03128365841457175</v>
+        <v>0.01792068582287494</v>
       </c>
       <c r="F80">
-        <v>0.02019336884894254</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.03020589115004432</v>
+      </c>
+      <c r="G80">
+        <v>0.05731518538225436</v>
+      </c>
+      <c r="H80">
+        <v>-0.05573148131652136</v>
+      </c>
+      <c r="I80">
+        <v>-0.06066818111451512</v>
+      </c>
+      <c r="J80">
+        <v>-0.01195679644229211</v>
+      </c>
+      <c r="K80">
+        <v>-0.02059256090554852</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.0001301285652843949</v>
+        <v>0.02017334723502052</v>
       </c>
       <c r="C81">
-        <v>0.08482837413632759</v>
+        <v>-0.1000473626959266</v>
       </c>
       <c r="D81">
-        <v>-0.05182037343819799</v>
+        <v>-0.05537027190785693</v>
       </c>
       <c r="E81">
-        <v>-0.08330518845282868</v>
+        <v>-0.01003714037554572</v>
       </c>
       <c r="F81">
-        <v>0.00487859953498196</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.03743684624369416</v>
+      </c>
+      <c r="G81">
+        <v>-0.02630711357314323</v>
+      </c>
+      <c r="H81">
+        <v>0.07381908595338424</v>
+      </c>
+      <c r="I81">
+        <v>0.1026019098735618</v>
+      </c>
+      <c r="J81">
+        <v>0.03087033477377179</v>
+      </c>
+      <c r="K81">
+        <v>-0.0557333571125142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.01639352293284389</v>
+        <v>0.05102737877213065</v>
       </c>
       <c r="C82">
-        <v>0.07623089024387968</v>
+        <v>-0.1075821525680851</v>
       </c>
       <c r="D82">
-        <v>-0.07065605585231909</v>
+        <v>-0.06643285687744958</v>
       </c>
       <c r="E82">
-        <v>-0.08609162546194642</v>
+        <v>-0.006021940176843129</v>
       </c>
       <c r="F82">
-        <v>0.02822601898819468</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.06450357852558501</v>
+      </c>
+      <c r="G82">
+        <v>-0.04903150088930144</v>
+      </c>
+      <c r="H82">
+        <v>0.06896840825606153</v>
+      </c>
+      <c r="I82">
+        <v>0.06091743891074595</v>
+      </c>
+      <c r="J82">
+        <v>-0.04067319649180709</v>
+      </c>
+      <c r="K82">
+        <v>-0.008904725190878836</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.01523696171050465</v>
+        <v>-0.0001989373785318952</v>
       </c>
       <c r="C83">
-        <v>0.002466011953203782</v>
+        <v>0.02296402180314984</v>
       </c>
       <c r="D83">
-        <v>0.1490667919177284</v>
+        <v>0.06046108606806454</v>
       </c>
       <c r="E83">
-        <v>0.5126011438467095</v>
+        <v>-0.01358181732230963</v>
       </c>
       <c r="F83">
-        <v>0.73029026529302</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.7411958264212073</v>
+      </c>
+      <c r="G83">
+        <v>0.6110701967724426</v>
+      </c>
+      <c r="H83">
+        <v>0.03136656547754677</v>
+      </c>
+      <c r="I83">
+        <v>-0.02892209958569461</v>
+      </c>
+      <c r="J83">
+        <v>-0.1133628211504663</v>
+      </c>
+      <c r="K83">
+        <v>0.07032941334714635</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.009383165999420316</v>
+        <v>0.01539534501971539</v>
       </c>
       <c r="C84">
-        <v>0.1021683662383001</v>
+        <v>-0.06346053333577674</v>
       </c>
       <c r="D84">
-        <v>-0.02082858246559206</v>
+        <v>-0.08724191839137327</v>
       </c>
       <c r="E84">
-        <v>0.05570622382936568</v>
+        <v>0.2152993090640885</v>
       </c>
       <c r="F84">
-        <v>-0.1463838720754702</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0.1378577487740827</v>
+      </c>
+      <c r="G84">
+        <v>0.08162620889089732</v>
+      </c>
+      <c r="H84">
+        <v>0.5375505354025109</v>
+      </c>
+      <c r="I84">
+        <v>-0.5655356205322222</v>
+      </c>
+      <c r="J84">
+        <v>-0.4516276393949676</v>
+      </c>
+      <c r="K84">
+        <v>-0.1375499150598539</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.001842125636433682</v>
+        <v>0.03507603446209052</v>
       </c>
       <c r="C85">
-        <v>0.0928351760861662</v>
+        <v>-0.115426820373695</v>
       </c>
       <c r="D85">
-        <v>-0.05333998692430596</v>
+        <v>-0.080200855131062</v>
       </c>
       <c r="E85">
-        <v>-0.07375520062764009</v>
+        <v>-0.0232167015082822</v>
       </c>
       <c r="F85">
-        <v>0.01432004113834573</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.08208550537781907</v>
+      </c>
+      <c r="G85">
+        <v>-0.09416034740950267</v>
+      </c>
+      <c r="H85">
+        <v>0.1391303697666554</v>
+      </c>
+      <c r="I85">
+        <v>0.1980106715651698</v>
+      </c>
+      <c r="J85">
+        <v>-0.09771842244548908</v>
+      </c>
+      <c r="K85">
+        <v>-0.08391526351880171</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.01566965176105585</v>
+        <v>0.01663603780984059</v>
       </c>
       <c r="C86">
-        <v>0.1062856260834885</v>
+        <v>-0.07836812001298279</v>
       </c>
       <c r="D86">
-        <v>-0.007732257241409761</v>
+        <v>-0.03704138983440504</v>
       </c>
       <c r="E86">
-        <v>0.02563362072370641</v>
+        <v>0.05438334113535834</v>
       </c>
       <c r="F86">
-        <v>-0.03724492498779026</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.03917575218785353</v>
+      </c>
+      <c r="G86">
+        <v>0.07575209125880196</v>
+      </c>
+      <c r="H86">
+        <v>-0.04802790774117547</v>
+      </c>
+      <c r="I86">
+        <v>0.09121961089201766</v>
+      </c>
+      <c r="J86">
+        <v>0.04811920904761491</v>
+      </c>
+      <c r="K86">
+        <v>-0.07061199936336017</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.008612851553287343</v>
+        <v>0.02979959537936243</v>
       </c>
       <c r="C87">
-        <v>0.1631963060676522</v>
+        <v>-0.1200562480805805</v>
       </c>
       <c r="D87">
-        <v>-0.03515534089562963</v>
+        <v>-0.0207045647802453</v>
       </c>
       <c r="E87">
-        <v>0.07762046954868103</v>
+        <v>-0.03518799782563834</v>
       </c>
       <c r="F87">
-        <v>-0.06162937563049917</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.02014492551781477</v>
+      </c>
+      <c r="G87">
+        <v>0.03237848202251049</v>
+      </c>
+      <c r="H87">
+        <v>0.0274180826354304</v>
+      </c>
+      <c r="I87">
+        <v>-0.004706054956830181</v>
+      </c>
+      <c r="J87">
+        <v>0.02527718501679803</v>
+      </c>
+      <c r="K87">
+        <v>0.08126342905605788</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.008107176404409881</v>
+        <v>0.04069188330039109</v>
       </c>
       <c r="C88">
-        <v>0.03590958766030422</v>
+        <v>-0.05991745038294388</v>
       </c>
       <c r="D88">
-        <v>-0.04320369698556719</v>
+        <v>-0.03624866094263626</v>
       </c>
       <c r="E88">
-        <v>-0.04894937125439421</v>
+        <v>-0.01755539738276777</v>
       </c>
       <c r="F88">
-        <v>0.01277399608443198</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.00836003910947516</v>
+      </c>
+      <c r="G88">
+        <v>-0.02164716660449699</v>
+      </c>
+      <c r="H88">
+        <v>-0.01115051674052077</v>
+      </c>
+      <c r="I88">
+        <v>0.006217567084675305</v>
+      </c>
+      <c r="J88">
+        <v>0.01790364829657173</v>
+      </c>
+      <c r="K88">
+        <v>0.005140554168268903</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.41483435575229</v>
+        <v>0.3879658245574806</v>
       </c>
       <c r="C89">
-        <v>-0.06351475204405758</v>
+        <v>0.1302392031608728</v>
       </c>
       <c r="D89">
-        <v>-0.08149109210897228</v>
+        <v>0.03339125883890438</v>
       </c>
       <c r="E89">
-        <v>0.07971711569006515</v>
+        <v>-0.03509897904832724</v>
       </c>
       <c r="F89">
-        <v>-0.07040098244871291</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.06527401925484796</v>
+      </c>
+      <c r="G89">
+        <v>0.00577539512777686</v>
+      </c>
+      <c r="H89">
+        <v>0.07671614297003894</v>
+      </c>
+      <c r="I89">
+        <v>-0.05060027832535052</v>
+      </c>
+      <c r="J89">
+        <v>-0.0145211286600222</v>
+      </c>
+      <c r="K89">
+        <v>0.7211467575195681</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.3051002115371733</v>
+        <v>0.3148143555887481</v>
       </c>
       <c r="C90">
-        <v>-0.01466459148681637</v>
+        <v>0.08669536353179762</v>
       </c>
       <c r="D90">
-        <v>0.01362714545655401</v>
+        <v>0.02161856466299901</v>
       </c>
       <c r="E90">
-        <v>0.04881886605822455</v>
+        <v>0.01193310619755607</v>
       </c>
       <c r="F90">
-        <v>0.02322725480859769</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.01169035091808021</v>
+      </c>
+      <c r="G90">
+        <v>0.02807601592359643</v>
+      </c>
+      <c r="H90">
+        <v>0.02223110090024455</v>
+      </c>
+      <c r="I90">
+        <v>-0.003396343693253005</v>
+      </c>
+      <c r="J90">
+        <v>0.005326982694326811</v>
+      </c>
+      <c r="K90">
+        <v>-0.09236492831935093</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.02727646241266935</v>
+        <v>0.0591144188369196</v>
       </c>
       <c r="C91">
-        <v>0.07394912780834637</v>
+        <v>-0.07535637998611458</v>
       </c>
       <c r="D91">
-        <v>-0.05705204242412181</v>
+        <v>-0.05317258736968535</v>
       </c>
       <c r="E91">
-        <v>-0.02981123074082572</v>
+        <v>-0.01532649950496337</v>
       </c>
       <c r="F91">
-        <v>0.0451559930994286</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.06120566577313244</v>
+      </c>
+      <c r="G91">
+        <v>-0.009847654242701263</v>
+      </c>
+      <c r="H91">
+        <v>0.02232198111330054</v>
+      </c>
+      <c r="I91">
+        <v>0.09082780617908878</v>
+      </c>
+      <c r="J91">
+        <v>-0.04356042718685674</v>
+      </c>
+      <c r="K91">
+        <v>-0.02742200818861977</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.3746073441345211</v>
+        <v>0.3492084069391773</v>
       </c>
       <c r="C92">
-        <v>-0.06079501658661795</v>
+        <v>0.124994059646483</v>
       </c>
       <c r="D92">
-        <v>0.01397503817197421</v>
+        <v>0.04841051749157563</v>
       </c>
       <c r="E92">
-        <v>-0.01356985869506452</v>
+        <v>-0.00921873871485619</v>
       </c>
       <c r="F92">
-        <v>-0.1228879331421937</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.06194593663246768</v>
+      </c>
+      <c r="G92">
+        <v>0.0150886133635087</v>
+      </c>
+      <c r="H92">
+        <v>0.02559964960384485</v>
+      </c>
+      <c r="I92">
+        <v>0.01222810363883676</v>
+      </c>
+      <c r="J92">
+        <v>0.06403177490290357</v>
+      </c>
+      <c r="K92">
+        <v>-0.1303196737603836</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.3141896902628216</v>
+        <v>0.3050192047599754</v>
       </c>
       <c r="C93">
-        <v>-0.07476315711598235</v>
+        <v>0.1293363018933585</v>
       </c>
       <c r="D93">
-        <v>0.001129528297122074</v>
+        <v>0.008453587712332801</v>
       </c>
       <c r="E93">
-        <v>0.05209947406881128</v>
+        <v>0.03234630744447568</v>
       </c>
       <c r="F93">
-        <v>-0.02462609046325193</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.03220420007523002</v>
+      </c>
+      <c r="G93">
+        <v>0.04045858147727631</v>
+      </c>
+      <c r="H93">
+        <v>0.02318366209377741</v>
+      </c>
+      <c r="I93">
+        <v>0.04207962454274275</v>
+      </c>
+      <c r="J93">
+        <v>0.02819862853871394</v>
+      </c>
+      <c r="K93">
+        <v>-0.1272125369365232</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.02384640856660643</v>
+        <v>0.08977199045186755</v>
       </c>
       <c r="C94">
-        <v>0.1981964249339906</v>
+        <v>-0.1715491467100907</v>
       </c>
       <c r="D94">
-        <v>-0.07967559097307958</v>
+        <v>-0.1051143719565969</v>
       </c>
       <c r="E94">
-        <v>-0.07334209006679562</v>
+        <v>-0.01498517648348434</v>
       </c>
       <c r="F94">
-        <v>-0.09022080237425123</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.0667437437003319</v>
+      </c>
+      <c r="G94">
+        <v>-0.06982953173342224</v>
+      </c>
+      <c r="H94">
+        <v>0.187205710005413</v>
+      </c>
+      <c r="I94">
+        <v>0.4214587081016494</v>
+      </c>
+      <c r="J94">
+        <v>-0.2777310766415498</v>
+      </c>
+      <c r="K94">
+        <v>-0.007317218353497813</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.02637074890838755</v>
+        <v>0.04732903199238593</v>
       </c>
       <c r="C95">
-        <v>0.12521778298574</v>
+        <v>-0.136515068700708</v>
       </c>
       <c r="D95">
-        <v>-0.07038627707146075</v>
+        <v>-0.06831747760894623</v>
       </c>
       <c r="E95">
-        <v>-0.1509596320503317</v>
+        <v>-0.0266465915049375</v>
       </c>
       <c r="F95">
-        <v>0.09668771114415231</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.02519601090100405</v>
+      </c>
+      <c r="G95">
+        <v>-0.08319717919890572</v>
+      </c>
+      <c r="H95">
+        <v>0.0932739803966655</v>
+      </c>
+      <c r="I95">
+        <v>-0.06377034746881297</v>
+      </c>
+      <c r="J95">
+        <v>-0.04129487136343759</v>
+      </c>
+      <c r="K95">
+        <v>0.07476091998825281</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4057,130 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.001003910041121542</v>
+        <v>0.02572355880037756</v>
       </c>
       <c r="C97">
-        <v>0.0005241500940893792</v>
+        <v>-0.02999979316904536</v>
       </c>
       <c r="D97">
-        <v>-0.001286390100276411</v>
+        <v>-0.002923139052654434</v>
       </c>
       <c r="E97">
-        <v>-0.004724451238908384</v>
+        <v>0.05096636613069596</v>
       </c>
       <c r="F97">
-        <v>-0.002697838983367293</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>0.01170518012968195</v>
+      </c>
+      <c r="G97">
+        <v>-0.01931165891983059</v>
+      </c>
+      <c r="H97">
+        <v>-0.009252176476005557</v>
+      </c>
+      <c r="I97">
+        <v>0.01397085590540298</v>
+      </c>
+      <c r="J97">
+        <v>0.03482944194204893</v>
+      </c>
+      <c r="K97">
+        <v>0.05877128076721418</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.09589721774999552</v>
+        <v>0.1411785191816039</v>
       </c>
       <c r="C98">
-        <v>0.1567331504690678</v>
+        <v>-0.1575503887201647</v>
       </c>
       <c r="D98">
-        <v>-0.1352097112376642</v>
+        <v>-0.08141801815335899</v>
       </c>
       <c r="E98">
-        <v>-0.1582477168188904</v>
+        <v>-0.05204062905114146</v>
       </c>
       <c r="F98">
-        <v>0.195106113563163</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.14910930235763</v>
+      </c>
+      <c r="G98">
+        <v>-0.1641129309559171</v>
+      </c>
+      <c r="H98">
+        <v>-0.352354459611133</v>
+      </c>
+      <c r="I98">
+        <v>-0.1934069347660719</v>
+      </c>
+      <c r="J98">
+        <v>-0.1856638198779227</v>
+      </c>
+      <c r="K98">
+        <v>-0.1005355826199856</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.02663524757908059</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>-0.05194217004774661</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>0.03330541761047645</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>0.9482890426349518</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>-0.1159227710126623</v>
+      </c>
+      <c r="G99">
+        <v>-0.1120749192861407</v>
+      </c>
+      <c r="H99">
+        <v>-0.1364578934819103</v>
+      </c>
+      <c r="I99">
+        <v>0.1036930013252784</v>
+      </c>
+      <c r="J99">
+        <v>0.04899118103429967</v>
+      </c>
+      <c r="K99">
+        <v>0.0720937335552814</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,50 +4197,95 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.008120497813382248</v>
+        <v>0.01870808610788148</v>
       </c>
       <c r="C101">
-        <v>0.07511371317235598</v>
+        <v>-0.07955385338144326</v>
       </c>
       <c r="D101">
-        <v>-0.05756813633010491</v>
+        <v>-0.04527079545467314</v>
       </c>
       <c r="E101">
-        <v>-0.01850269013570458</v>
+        <v>-0.01156892809188957</v>
       </c>
       <c r="F101">
-        <v>0.03610432545033911</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.03843083753505412</v>
+      </c>
+      <c r="G101">
+        <v>0.02156869442323094</v>
+      </c>
+      <c r="H101">
+        <v>0.06237980880899752</v>
+      </c>
+      <c r="I101">
+        <v>-0.1590066935740716</v>
+      </c>
+      <c r="J101">
+        <v>0.2506476392112929</v>
+      </c>
+      <c r="K101">
+        <v>-0.04412700496924543</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.0007529545513963098</v>
+        <v>0.0005786598130689585</v>
       </c>
       <c r="C102">
-        <v>0.006042991857507791</v>
+        <v>-0.002874967931508785</v>
       </c>
       <c r="D102">
-        <v>-0.003126407903075906</v>
+        <v>0.0002561242498254691</v>
       </c>
       <c r="E102">
-        <v>-0.01031465457457759</v>
+        <v>-0.001904514041057502</v>
       </c>
       <c r="F102">
-        <v>0.01118959386780549</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.004848839170190584</v>
+      </c>
+      <c r="G102">
+        <v>-0.003998442558356533</v>
+      </c>
+      <c r="H102">
+        <v>0.001326739413955203</v>
+      </c>
+      <c r="I102">
+        <v>-0.001099803570534152</v>
+      </c>
+      <c r="J102">
+        <v>0.001446116277624698</v>
+      </c>
+      <c r="K102">
+        <v>0.02336125828922313</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4302,25 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4335,21 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
